--- a/www/terminologies/ValueSet-jdv-origine-effet-indesirable-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-origine-effet-indesirable-cisis.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-origine-effet-indesirable-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-origine-effet-indesirable-cisis.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,6 +100,12 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>MED-1334</t>
+  </si>
+  <si>
+    <t>mésusage ou d’un usage détourné</t>
+  </si>
+  <si>
     <t>MED-1279</t>
   </si>
   <si>
@@ -131,12 +137,6 @@
   </si>
   <si>
     <t>surdosage</t>
-  </si>
-  <si>
-    <t>1.2.250.1.213.1.1.5.785.1</t>
-  </si>
-  <si>
-    <t>mésusage ou d’un usage détourné (Demande de création SNOMED CT en cours)</t>
   </si>
   <si>
     <t>398240004</t>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -475,15 +475,23 @@
         <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +501,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -513,81 +521,73 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>51</v>
       </c>
     </row>
